--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il12b-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il12b-Il12rb1.xlsx
@@ -543,40 +543,40 @@
         <v>0.275877</v>
       </c>
       <c r="I2">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491324</v>
       </c>
       <c r="J2">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491323</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.162136</v>
+        <v>0.5699070000000001</v>
       </c>
       <c r="N2">
-        <v>0.486408</v>
+        <v>1.709721</v>
       </c>
       <c r="O2">
-        <v>0.0598694021675715</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="P2">
-        <v>0.05986940216757151</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="Q2">
-        <v>0.014909864424</v>
+        <v>0.052408077813</v>
       </c>
       <c r="R2">
-        <v>0.134188779816</v>
+        <v>0.471672700317</v>
       </c>
       <c r="S2">
-        <v>0.003761038903540894</v>
+        <v>0.006541564123333009</v>
       </c>
       <c r="T2">
-        <v>0.003761038903540894</v>
+        <v>0.006541564123333007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.275877</v>
       </c>
       <c r="I3">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491324</v>
       </c>
       <c r="J3">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491323</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,13 +620,13 @@
         <v>1.694965</v>
       </c>
       <c r="N3">
-        <v>5.084894999999999</v>
+        <v>5.084895</v>
       </c>
       <c r="O3">
-        <v>0.6258729785177741</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="P3">
-        <v>0.6258729785177742</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="Q3">
         <v>0.155867286435</v>
@@ -635,10 +635,10 @@
         <v>1.402805577915</v>
       </c>
       <c r="S3">
-        <v>0.03931779065192301</v>
+        <v>0.01945531855952836</v>
       </c>
       <c r="T3">
-        <v>0.03931779065192302</v>
+        <v>0.01945531855952836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.275877</v>
       </c>
       <c r="I4">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491324</v>
       </c>
       <c r="J4">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491323</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.153219</v>
+        <v>0.125128</v>
       </c>
       <c r="N4">
-        <v>0.459657</v>
+        <v>0.375384</v>
       </c>
       <c r="O4">
-        <v>0.05657676229038053</v>
+        <v>0.03239406671425592</v>
       </c>
       <c r="P4">
-        <v>0.05657676229038054</v>
+        <v>0.03239406671425593</v>
       </c>
       <c r="Q4">
-        <v>0.014089866021</v>
+        <v>0.011506645752</v>
       </c>
       <c r="R4">
-        <v>0.126808794189</v>
+        <v>0.103559811768</v>
       </c>
       <c r="S4">
-        <v>0.00355419289831766</v>
+        <v>0.00143625685528413</v>
       </c>
       <c r="T4">
-        <v>0.003554192898317661</v>
+        <v>0.00143625685528413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.275877</v>
       </c>
       <c r="I5">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491324</v>
       </c>
       <c r="J5">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491323</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6978413333333333</v>
+        <v>1.472682666666667</v>
       </c>
       <c r="N5">
-        <v>2.093524</v>
+        <v>4.418048</v>
       </c>
       <c r="O5">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="P5">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="Q5">
-        <v>0.064172791172</v>
+        <v>0.135426425344</v>
       </c>
       <c r="R5">
-        <v>0.577555120548</v>
+        <v>1.218837828096</v>
       </c>
       <c r="S5">
-        <v>0.01618769676793257</v>
+        <v>0.01690389501676774</v>
       </c>
       <c r="T5">
-        <v>0.01618769676793257</v>
+        <v>0.01690389501676773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.371873333333333</v>
+        <v>1.982131</v>
       </c>
       <c r="H6">
-        <v>4.11562</v>
+        <v>5.946393</v>
       </c>
       <c r="I6">
-        <v>0.9371792807782859</v>
+        <v>0.9556629654450868</v>
       </c>
       <c r="J6">
-        <v>0.9371792807782858</v>
+        <v>0.9556629654450867</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.162136</v>
+        <v>0.5699070000000001</v>
       </c>
       <c r="N6">
-        <v>0.486408</v>
+        <v>1.709721</v>
       </c>
       <c r="O6">
-        <v>0.0598694021675715</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="P6">
-        <v>0.05986940216757151</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="Q6">
-        <v>0.2224300547733333</v>
+        <v>1.129630331817</v>
       </c>
       <c r="R6">
-        <v>2.00187049296</v>
+        <v>10.166672986353</v>
       </c>
       <c r="S6">
-        <v>0.05610836326403061</v>
+        <v>0.1410001961455233</v>
       </c>
       <c r="T6">
-        <v>0.05610836326403062</v>
+        <v>0.1410001961455233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.371873333333333</v>
+        <v>1.982131</v>
       </c>
       <c r="H7">
-        <v>4.11562</v>
+        <v>5.946393</v>
       </c>
       <c r="I7">
-        <v>0.9371792807782859</v>
+        <v>0.9556629654450868</v>
       </c>
       <c r="J7">
-        <v>0.9371792807782858</v>
+        <v>0.9556629654450867</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>1.694965</v>
       </c>
       <c r="N7">
-        <v>5.084894999999999</v>
+        <v>5.084895</v>
       </c>
       <c r="O7">
-        <v>0.6258729785177741</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="P7">
-        <v>0.6258729785177742</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="Q7">
-        <v>2.325277284433333</v>
+        <v>3.359642670415</v>
       </c>
       <c r="R7">
-        <v>20.9274955599</v>
+        <v>30.23678403373501</v>
       </c>
       <c r="S7">
-        <v>0.5865551878658511</v>
+        <v>0.4193498192859483</v>
       </c>
       <c r="T7">
-        <v>0.5865551878658511</v>
+        <v>0.4193498192859482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.371873333333333</v>
+        <v>1.982131</v>
       </c>
       <c r="H8">
-        <v>4.11562</v>
+        <v>5.946393</v>
       </c>
       <c r="I8">
-        <v>0.9371792807782859</v>
+        <v>0.9556629654450868</v>
       </c>
       <c r="J8">
-        <v>0.9371792807782858</v>
+        <v>0.9556629654450867</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.153219</v>
+        <v>0.125128</v>
       </c>
       <c r="N8">
-        <v>0.459657</v>
+        <v>0.375384</v>
       </c>
       <c r="O8">
-        <v>0.05657676229038053</v>
+        <v>0.03239406671425592</v>
       </c>
       <c r="P8">
-        <v>0.05657676229038054</v>
+        <v>0.03239406671425593</v>
       </c>
       <c r="Q8">
-        <v>0.21019706026</v>
+        <v>0.248020087768</v>
       </c>
       <c r="R8">
-        <v>1.89177354234</v>
+        <v>2.232180789912</v>
       </c>
       <c r="S8">
-        <v>0.05302256939206287</v>
+        <v>0.0309578098589718</v>
       </c>
       <c r="T8">
-        <v>0.05302256939206288</v>
+        <v>0.0309578098589718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.371873333333333</v>
+        <v>1.982131</v>
       </c>
       <c r="H9">
-        <v>4.11562</v>
+        <v>5.946393</v>
       </c>
       <c r="I9">
-        <v>0.9371792807782859</v>
+        <v>0.9556629654450868</v>
       </c>
       <c r="J9">
-        <v>0.9371792807782858</v>
+        <v>0.9556629654450867</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6978413333333333</v>
+        <v>1.472682666666667</v>
       </c>
       <c r="N9">
-        <v>2.093524</v>
+        <v>4.418048</v>
       </c>
       <c r="O9">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="P9">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="Q9">
-        <v>0.9573499160977778</v>
+        <v>2.919049966762667</v>
       </c>
       <c r="R9">
-        <v>8.616149244879999</v>
+        <v>26.271449700864</v>
       </c>
       <c r="S9">
-        <v>0.2414931602563412</v>
+        <v>0.3643551401546433</v>
       </c>
       <c r="T9">
-        <v>0.2414931602563412</v>
+        <v>0.3643551401546433</v>
       </c>
     </row>
   </sheetData>
